--- a/products/manuscript/supplementary_materials/Supplementary Data Table 3.xlsx
+++ b/products/manuscript/supplementary_materials/Supplementary Data Table 3.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannah/Documents/OSUDocs/Projects/Disease_LHS/GCMP_Global_Disease/products/manuscript/supplementary_materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64537D8-E73F-6A4B-8AFF-18C7255AF825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754DFBE1-5CB2-074B-87EE-724487EF84B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5540" yWindow="760" windowWidth="23260" windowHeight="12580" activeTab="2" xr2:uid="{635964DC-1275-F24E-A533-4EEDB34ABDB9}"/>
+    <workbookView xWindow="5540" yWindow="760" windowWidth="23260" windowHeight="12580" xr2:uid="{635964DC-1275-F24E-A533-4EEDB34ABDB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 3a" sheetId="1" r:id="rId1"/>
     <sheet name="Table 3b" sheetId="2" r:id="rId2"/>
     <sheet name="Table 3c" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -791,6 +791,21 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Phylogenetic generalized least squares (PGLS) model correlations between microbiome alpha diversity and disease in either gamma-proteobacteria or alpha-proteobacteria dominated microbiomes. c) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Results generated from the PGLS analysis conducted between microbial alpha diversity metrics (microbial richness, evenness (gini index) and dominance (Simpson's Index)) and host disease across only coral genera where either gamma-proteobacteria or alpha-proteobacteria dominated (made up over 50%) of the coral microbiome; whether the test was run for gamma- or alpha-proteobacteria is noted under filter_value. Four PGLS models (BM, BM_Lambda, BM_Kappa, BM_Delta) were run for each alpha diversity metric and coral compartment where parameters lambda (λ), delta (𝜹), and kappa (κ) were either set to 1 or maximum likelihood (ML) (see Supplementary Data Table 13 for explanations of parameters). Best model designation is based on the lowest AIC score of the 4 models.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Phylogenetic generalized least squares (PGLS) model correlations between microbiome alpha diversity and disease for Australia-only. b) </t>
     </r>
     <r>
@@ -801,7 +816,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Results generated from the PGLS analysis conducted between microbial dominance (Simpson's Index) and host disease susceptibility using a dataset subset to the Australia locality only for all metrics. Four PGLS models (BM, BM_Lambda, BM_Kappa, BM_Delta) were run for each alpha diversity metric and coral compartment where parameters lambda (λ), delta (𝜹), and kappa (κ) were either set to 1 or maximum likelihood (ML) (see Supplementary Data Table 12 for explanations of parameters). Best model designation is based on the lowest AIC score of the 4 models.</t>
+      <t>Results generated from the PGLS analysis conducted between microbial dominance (Simpson's Index) and host disease susceptibility using a dataset subset to the Australia locality only for all metrics. Four PGLS models (BM, BM_Lambda, BM_Kappa, BM_Delta) were run for each alpha diversity metric and coral compartment where parameters lambda (λ), delta (𝜹), and kappa (κ) were either set to 1 or maximum likelihood (ML) (see Supplementary Data Table 13 for explanations of parameters). Best model designation is based on the lowest AIC score of the 4 models.</t>
     </r>
   </si>
   <si>
@@ -816,7 +831,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Results generated from the PGLS analysis conducted between microbial alpha diversity metrics (microbial richness, evenness (gini index) and dominance (Simpson's Index)) and host disease across all coral genera. Four PGLS models (BM, BM_Lambda, BM_Kappa, BM_Delta) were run for each alpha diversity metric and coral compartment where parameters lambda (λ), delta (𝜹), and kappa (κ) were either set to 1 or maximum likelihood (ML) (see Supplementary Data Table 12 for explanations of parameters). Best model designation is based on the lowest AIC score of the 4 models</t>
+      <t>Results generated from the PGLS analysis conducted between microbial alpha diversity metrics (microbial richness, evenness (gini index) and dominance (Simpson's Index)) and host disease across all coral genera. Four PGLS models (BM, BM_Lambda, BM_Kappa, BM_Delta) were run for each alpha diversity metric and coral compartment where parameters lambda (λ), delta (𝜹), and kappa (κ) were either set to 1 or maximum likelihood (ML) (see Supplementary Data Table 13 for explanations of parameters). Best model designation is based on the lowest AIC score of the 4 models</t>
     </r>
     <r>
       <rPr>
@@ -828,21 +843,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Phylogenetic generalized least squares (PGLS) model correlations between microbiome alpha diversity and disease in either gamma-proteobacteria or alpha-proteobacteria dominated microbiomes. c) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Results generated from the PGLS analysis conducted between microbial alpha diversity metrics (microbial richness, evenness (gini index) and dominance (Simpson's Index)) and host disease across only coral genera where either gamma-proteobacteria or alpha-proteobacteria dominated (made up over 50%) of the coral microbiome; whether the test was run for gamma- or alpha-proteobacteria is noted under filter_value. Four PGLS models (BM, BM_Lambda, BM_Kappa, BM_Delta) were run for each alpha diversity metric and coral compartment where parameters lambda (λ), delta (𝜹), and kappa (κ) were either set to 1 or maximum likelihood (ML) (see Supplementary Data Table 12 for explanations of parameters). Best model designation is based on the lowest AIC score of the 4 models.</t>
     </r>
   </si>
 </sst>
@@ -990,9 +990,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1030,7 +1030,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1136,7 +1136,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1278,7 +1278,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1288,8 +1288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F06CC3E0-6C45-264B-AC77-3286BEF35D46}">
   <dimension ref="A1:X1286"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="2" spans="1:24" ht="98.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -11183,7 +11183,7 @@
   <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="A2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11208,7 +11208,7 @@
     </row>
     <row r="2" spans="1:24" ht="117" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -12401,7 +12401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A977ED24-1F23-0245-A24D-FEB73393BEA3}">
   <dimension ref="A1:Y99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
@@ -12441,7 +12441,7 @@
     </row>
     <row r="2" spans="1:25" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
